--- a/CapaDatos/Levantamiento STB.xlsx
+++ b/CapaDatos/Levantamiento STB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EIKER\Desktop\trabajo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos\projetouniversitario\CapaDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20DA997-661F-4D40-A61A-5459BB3700BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" tabRatio="144"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cuenta Individual" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cuenta Individual'!$A$1:$F$638</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4326" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5894" uniqueCount="1084">
   <si>
     <t>No Documento</t>
   </si>
@@ -2755,9 +2757,6 @@
     <t>Request Foreign Exchange Transaction</t>
   </si>
   <si>
-    <t>Customer No</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Customer Foreign Exchange</t>
   </si>
   <si>
@@ -2826,11 +2825,998 @@
   <si>
     <t>○ Customer F/X Form ○ Fax/E-Mail ○ Phone ○ Other</t>
   </si>
+  <si>
+    <t>2039 STIBT Form 2039 - Individual Internet Banking User - New Maintenance (REV151101)</t>
+  </si>
+  <si>
+    <t>#2039</t>
+  </si>
+  <si>
+    <t>Internet Banking  User</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Customer Number</t>
+  </si>
+  <si>
+    <t>○ Individual ○ PHC</t>
+  </si>
+  <si>
+    <t>User Information</t>
+  </si>
+  <si>
+    <t>User ID &amp; Password</t>
+  </si>
+  <si>
+    <t>Portfolios the Internet Banking User can have access to</t>
+  </si>
+  <si>
+    <t>Last Name: First Name: Middle Name: City: Country: Date of Birth (M/D/Y):</t>
+  </si>
+  <si>
+    <t>Number Description           |             Number Description</t>
+  </si>
+  <si>
+    <t>Internet Functionality</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yes No</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Functionality                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Yes No</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Functionality
+○   ○  Retrieve Statements                 ○   ○ Internal Transfers Permitted
+○   ○ Change Account Nicknames     ○   ○ Third Party Transfers Permitted
+○   ○   View Web Activity                    ○   ○ International Transfers Permitted
+○   ○ View Notifications                    ○   ○ Programmed Payments Permitted
+○   ○                                                       ○   ○ New Time Deposits
+○   ○                                                       ○   ○ Loans &amp; Credit Payments Permitted</t>
+    </r>
+  </si>
+  <si>
+    <t>2039C STIBT Form 2039C - Corporate Internet Banking - New  Maintenance (REV151101)</t>
+  </si>
+  <si>
+    <t>#2039C</t>
+  </si>
+  <si>
+    <t>Corporate Corporate Internet Banking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Corporate Name</t>
+  </si>
+  <si>
+    <t>Designation of Corporate Internet Banking Administrator</t>
+  </si>
+  <si>
+    <t>Name, Position, E-Mai, Customer No,</t>
+  </si>
+  <si>
+    <t>Corporate Banking Administrator Identifications</t>
+  </si>
+  <si>
+    <t>○ Passport  ○ Driver’s License   ○ Cédula  ○  Other_________</t>
+  </si>
+  <si>
+    <t>2040 STIBT eForm 2040 - Debit Card Request May 29 2018  I-014</t>
+  </si>
+  <si>
+    <t>#2040</t>
+  </si>
+  <si>
+    <t>Debit Card Request</t>
+  </si>
+  <si>
+    <t>○ New
+○ Maintenance</t>
+  </si>
+  <si>
+    <t>Product Information</t>
+  </si>
+  <si>
+    <t>Product Type</t>
+  </si>
+  <si>
+    <t>Issue Type</t>
+  </si>
+  <si>
+    <t>Reason for Issue</t>
+  </si>
+  <si>
+    <t>Account assignment</t>
+  </si>
+  <si>
+    <t>Portfolio assignment</t>
+  </si>
+  <si>
+    <t>Countries of Usage</t>
+  </si>
+  <si>
+    <t>○ USA ○ Country of Residence</t>
+  </si>
+  <si>
+    <t>○ Debit Card_____________________________</t>
+  </si>
+  <si>
+    <t>○ New ○ Additional ○ Replacement ○ Other Instruction ○ Individual ○ Corporate</t>
+  </si>
+  <si>
+    <t>Cardholder Information (Person using the Card)</t>
+  </si>
+  <si>
+    <t>Last Name, First Name, Middle Name,
+Address, Customer Number,
+City, State, Country,
+Home Phone, Work Phone, Mobil Phone,
+Date of Birth(m/d/y),  Country of Birth, Country of Residence,
+E-Mail</t>
+  </si>
+  <si>
+    <t>Name as it would appear on Card</t>
+  </si>
+  <si>
+    <t>Cardholder Relationship to Main Customer</t>
+  </si>
+  <si>
+    <t>○ Spouse ○ Son/Daughter ○ Father/Mother ○ Brother/Sister ○ Aunt/Uncle ○ Friend
+○ Other, Explain__________________</t>
+  </si>
+  <si>
+    <t>Cardholder Signature</t>
+  </si>
+  <si>
+    <t>By______________________ Full Name___________________ Date(MDY)</t>
+  </si>
+  <si>
+    <t>2041 STIBT eForm 2041 - Credit Card Request May 29 2018  I-015</t>
+  </si>
+  <si>
+    <t>#2041</t>
+  </si>
+  <si>
+    <t>Credit Card Request</t>
+  </si>
+  <si>
+    <t>Credit Card Information</t>
+  </si>
+  <si>
+    <t>Credit Limit Requested</t>
+  </si>
+  <si>
+    <t>Name on Card</t>
+  </si>
+  <si>
+    <t>WorldPass Premier Credit Card | Primary | Additional | Individual</t>
+  </si>
+  <si>
+    <t>○ New | ○ Lost | ○ Stolen ○ Damaged ○ Name Change ○ Other ____________</t>
+  </si>
+  <si>
+    <t>○ USD4,500 ○ USD 5,000  ○ USD 7,500  ○ USD 10,000  ○ Other Amount:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Collateral Account Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ to use existing Time Deposit with automatic rollover as collateral. ○ Rollover time is every 3 Months: to open a new Time Deposit to server as collateral. Debit Money Market. Number_______</t>
+  </si>
+  <si>
+    <t>○ USA ○ Country of Residence, ○ Other</t>
+  </si>
+  <si>
+    <t>○ Same  ○ Spouse   ○ Son/Daughter  ○ Father/Mother  ○ Brother/Sister  ○ Other,  ○ Explain</t>
+  </si>
+  <si>
+    <t>Signatures</t>
+  </si>
+  <si>
+    <t>Cardholder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portfolio Authorized Signature </t>
+  </si>
+  <si>
+    <t>By ________________Name___________Date      ○ Certify that the Financial and Employment Information
+provided in Sections IV &amp; V is authentic and up-to-date</t>
+  </si>
+  <si>
+    <t>IV. Employment Information (Only for New Credit Cards or Credit Limit increases)</t>
+  </si>
+  <si>
+    <t>Current Employe</t>
+  </si>
+  <si>
+    <t>Name ________
+Street ________
+City ________ State ________ Zip Code ________
+Country ________ Telephone ________
+Position ________ How Long (Years)?</t>
+  </si>
+  <si>
+    <t>Name _______</t>
+  </si>
+  <si>
+    <t>V. Financial Information (Only for New Credit Cards or Credit Limit increases)</t>
+  </si>
+  <si>
+    <t>Personal Income</t>
+  </si>
+  <si>
+    <t>Personal Expenses</t>
+  </si>
+  <si>
+    <t>Personal Liabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income Description USD    </t>
+  </si>
+  <si>
+    <t>Description USD</t>
+  </si>
+  <si>
+    <t>1 Monthly Expenses_________________________</t>
+  </si>
+  <si>
+    <t>1 Annual Gross Income  ________________
+2 Additional Income, specify ________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Assets </t>
+  </si>
+  <si>
+    <t>Asset Description Market Value USD</t>
+  </si>
+  <si>
+    <t>1 Bank Accounts
+2 Financial Assets
+3 Value of Real Estate Owned
+4 Other Assets, specify______________________</t>
+  </si>
+  <si>
+    <t>Liability Description USD</t>
+  </si>
+  <si>
+    <t>1 Short Term Loans
+2 Mortgage
+3 Other Liabilities, specify__________</t>
+  </si>
+  <si>
+    <t>2042 STIBT eForm 2042 - Card Limit Habilitation (REV151101)</t>
+  </si>
+  <si>
+    <t>#2042</t>
+  </si>
+  <si>
+    <t>DEBIT AND CREDIT CARD HABILITATION AND EXEMPTION OF LIMITS</t>
+  </si>
+  <si>
+    <t>Account Holder</t>
+  </si>
+  <si>
+    <t>Cards</t>
+  </si>
+  <si>
+    <t>Type |  Last 4 Digits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number  |  Account Holder  </t>
+  </si>
+  <si>
+    <t>Countries</t>
+  </si>
+  <si>
+    <t>Type of Enabling Types of Uses Permanent/Period</t>
+  </si>
+  <si>
+    <t>Types of Uses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passport </t>
+  </si>
+  <si>
+    <t>2046 STIBT Form 2046 - Card Country Usage Change Request (REV151101)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #2046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card Country Block/Usage Change Request </t>
+  </si>
+  <si>
+    <t>Debit Card Number</t>
+  </si>
+  <si>
+    <t>○ Debit Card</t>
+  </si>
+  <si>
+    <t>Card Usage (Person using the Card)</t>
+  </si>
+  <si>
+    <t>Select Countries to Allow or Block Card Transactions</t>
+  </si>
+  <si>
+    <t>Country     | Allow  | Block  |   From    |(M/D/Y)   To    | (M/D/Y)</t>
+  </si>
+  <si>
+    <t>1________○______○______________________________________</t>
+  </si>
+  <si>
+    <t>10________○______○______________________________________</t>
+  </si>
+  <si>
+    <t>9________○______○______________________________________</t>
+  </si>
+  <si>
+    <t>8________○______○______________________________________</t>
+  </si>
+  <si>
+    <t>7________○______○______________________________________</t>
+  </si>
+  <si>
+    <t>6________○______○______________________________________</t>
+  </si>
+  <si>
+    <t>5________○______○______________________________________</t>
+  </si>
+  <si>
+    <t>4________○______○______________________________________</t>
+  </si>
+  <si>
+    <t>3________○______○______________________________________</t>
+  </si>
+  <si>
+    <t>2________○______○______________________________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By ________________Name___________Date      
+</t>
+  </si>
+  <si>
+    <t>2048 STIBT eForm 2048 - Card Receipt Confirmation (REV151101) DIR</t>
+  </si>
+  <si>
+    <t>#2048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card Receipt Confirmation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card Information </t>
+  </si>
+  <si>
+    <t>Cardholder Name</t>
+  </si>
+  <si>
+    <t>Cardholder Address</t>
+  </si>
+  <si>
+    <t>Card Details</t>
+  </si>
+  <si>
+    <t>Delivery Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card Information Verification </t>
+  </si>
+  <si>
+    <t>Card Holder Verification</t>
+  </si>
+  <si>
+    <t>Office Information</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Agent Information</t>
+  </si>
+  <si>
+    <t>○ Debit Card | ○ Credit Card          | ○ Primary  ○ Additional | ○ Individual</t>
+  </si>
+  <si>
+    <t>City____________, Country _____________________, Code ____________</t>
+  </si>
+  <si>
+    <t>Agent Name _________</t>
+  </si>
+  <si>
+    <t>By ______________, Cardholder Name____________, Date __________</t>
+  </si>
+  <si>
+    <t>3001 STIBT Form 3001 - Credit  Loan Application (REV151101)</t>
+  </si>
+  <si>
+    <t>#3001</t>
+  </si>
+  <si>
+    <t>Credit &amp; Loan Application</t>
+  </si>
+  <si>
+    <t>Portfolio Legal Name</t>
+  </si>
+  <si>
+    <t>Borrower Name</t>
+  </si>
+  <si>
+    <t>Referral Officer</t>
+  </si>
+  <si>
+    <t>Branch ID</t>
+  </si>
+  <si>
+    <t>PHC</t>
+  </si>
+  <si>
+    <t>○ YES</t>
+  </si>
+  <si>
+    <t>Credit Information</t>
+  </si>
+  <si>
+    <t>Credit Type</t>
+  </si>
+  <si>
+    <t>○ Overdraft ○ Personal Loan ○ Real Estate Loan ○ Portfolio Backed Loan ○ Currency Loan
+○ Margin Loan ○ Other</t>
+  </si>
+  <si>
+    <t>Loan Purpose</t>
+  </si>
+  <si>
+    <t>Amount Requested</t>
+  </si>
+  <si>
+    <t>Currency: ○ USD ○ Euros ○ Other:</t>
+  </si>
+  <si>
+    <t>Collateral Required</t>
+  </si>
+  <si>
+    <t>Collateral</t>
+  </si>
+  <si>
+    <t>II. Collateral Information</t>
+  </si>
+  <si>
+    <t>Collateral Type</t>
+  </si>
+  <si>
+    <t>○ Time Deposits ○ Securities ○ Bonds ○ Real Estate  ○ Other, Explain</t>
+  </si>
+  <si>
+    <t>Collateral Description</t>
+  </si>
+  <si>
+    <t>Collateral Market Value</t>
+  </si>
+  <si>
+    <t>Collateral Location</t>
+  </si>
+  <si>
+    <t>Collateral Ownership</t>
+  </si>
+  <si>
+    <t>○ STIBT ○ STG ○ Other</t>
+  </si>
+  <si>
+    <t>○ Applicant ○ Co-Applicant ○ Other, Specify</t>
+  </si>
+  <si>
+    <t>III. Overdraft Protection (Complete this Section if the Credit Type is Overdraft Protection)</t>
+  </si>
+  <si>
+    <t>Term of Overdraft</t>
+  </si>
+  <si>
+    <t>○ 6 months ○ 12 months   Enter Overdraft Account(s) to be Protected</t>
+  </si>
+  <si>
+    <t>IV. Real Estate</t>
+  </si>
+  <si>
+    <t>Real Estate Facility Type</t>
+  </si>
+  <si>
+    <t>○ Purchase ○ Construction ○ Mortgage Refinance | Current Market Value ________________</t>
+  </si>
+  <si>
+    <t>Property Type</t>
+  </si>
+  <si>
+    <t>○ Primary Residence ○ Secondary Residence ○ Investment Property</t>
+  </si>
+  <si>
+    <t>Name of Title Holders</t>
+  </si>
+  <si>
+    <t>Insured by</t>
+  </si>
+  <si>
+    <t>Lien Information</t>
+  </si>
+  <si>
+    <t>Property Legal Description</t>
+  </si>
+  <si>
+    <t>Insurance Policy Number</t>
+  </si>
+  <si>
+    <t>Lien Holder Description</t>
+  </si>
+  <si>
+    <t>○ First Lien?</t>
+  </si>
+  <si>
+    <t>Lien Amount</t>
+  </si>
+  <si>
+    <t>V. Automatic Payment Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatically deduct Payment from my STIBT account ○ Yes ○ No   Account Number </t>
+  </si>
+  <si>
+    <t>Applicant /  Co- Applicant Applicant</t>
+  </si>
+  <si>
+    <t>VI. Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street, City, State, Zip, Country </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Phone,  Cellular, Email, </t>
+  </si>
+  <si>
+    <t>VII. Employment Employment Information</t>
+  </si>
+  <si>
+    <t>Employer:                                                           Employer:
+Position:                 How Long?                         Position: How Long?
+Address:                                                              Address:
+City: State: Country:                                           City: State: Country:
+Telephone:                                                         Telephone:
+E-Mail:                                                                 E-Mail:
+Previous Employer:                                            Previous Employer:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIII. Income &amp; Expense Information VIII. Income &amp; Expense Information (If Corporation please attach latest Financials) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUB TITLE </t>
+  </si>
+  <si>
+    <t>Annual Gross Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly Expenses </t>
+  </si>
+  <si>
+    <t>Other Income</t>
+  </si>
+  <si>
+    <t>3010 STIBT Form 3010 - Credit Committee Action (REV151101)</t>
+  </si>
+  <si>
+    <t>#3010</t>
+  </si>
+  <si>
+    <t>Credit Committee Action Credit Committee Action</t>
+  </si>
+  <si>
+    <t>Credit Applicant</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Credit Reviewed</t>
+  </si>
+  <si>
+    <t>Credit Amount</t>
+  </si>
+  <si>
+    <t>Credit Term</t>
+  </si>
+  <si>
+    <t>Collateral Information</t>
+  </si>
+  <si>
+    <t>Additional Information</t>
+  </si>
+  <si>
+    <t>Last Name, First Name, Number</t>
+  </si>
+  <si>
+    <t>○ Overdraft ○ Personal Loan ○ Real Estate Loan ○ Portfolio Backed Loan ○ Currency Loan
+○ Margin Loan ○ Other_____</t>
+  </si>
+  <si>
+    <t>Currency     Amount Approved         Amount Requested:</t>
+  </si>
+  <si>
+    <t>Periods: ○ Days ○ Months ○ Years</t>
+  </si>
+  <si>
+    <t>Type     Collateral Market Value              Loan/Collateral Ratio            Description</t>
+  </si>
+  <si>
+    <t>Credit Limit Analysis</t>
+  </si>
+  <si>
+    <t>Last Credit Analysis</t>
+  </si>
+  <si>
+    <t>Maximum Credit</t>
+  </si>
+  <si>
+    <t>Credit Limit Notes</t>
+  </si>
+  <si>
+    <t>Date   Credit Amount Approved   Available Credit Amount    Done By</t>
+  </si>
+  <si>
+    <t>Credit Disbursement</t>
+  </si>
+  <si>
+    <t>Disbursement Method</t>
+  </si>
+  <si>
+    <t>Disbursement Date</t>
+  </si>
+  <si>
+    <t>Disbursement Notes</t>
+  </si>
+  <si>
+    <t>○ Credit Account ○ Line of Credit ○ By Wire Transfer</t>
+  </si>
+  <si>
+    <t>○ Proceed Immediate ○ On Specific Date:</t>
+  </si>
+  <si>
+    <t>General Discussion (Summary Notes)</t>
+  </si>
+  <si>
+    <t>3020 STIBT Form 3020 - Mortgage Loan  Documentation Checklist (REV151101)</t>
+  </si>
+  <si>
+    <t>#3020</t>
+  </si>
+  <si>
+    <t>Mortgage Mortgage Loan Documentation Checklist Loan Documentation Checklist</t>
+  </si>
+  <si>
+    <t>Cash Account No</t>
+  </si>
+  <si>
+    <t>Mortgage Address</t>
+  </si>
+  <si>
+    <t>Date(MDY</t>
+  </si>
+  <si>
+    <t>Loan Type</t>
+  </si>
+  <si>
+    <t>○ Mortgage ○ Construction ○ Other Relation Type ○ International ○ Premier ○ Elite</t>
+  </si>
+  <si>
+    <t>Tabla</t>
+  </si>
+  <si>
+    <t>Loan Request Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit Committee Action Review </t>
+  </si>
+  <si>
+    <t>Purchase &amp; Sale Agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit Reference Letters (2) </t>
+  </si>
+  <si>
+    <t>County Legal Property Information -WEB-</t>
+  </si>
+  <si>
+    <t>Credit Report</t>
+  </si>
+  <si>
+    <t>Property Appraisal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STIBT Settlement Statement </t>
+  </si>
+  <si>
+    <t>Title Insurance</t>
+  </si>
+  <si>
+    <t>Mortgage / Warranty Deed</t>
+  </si>
+  <si>
+    <t>Proof of Property Insurance</t>
+  </si>
+  <si>
+    <t>Promissory Note</t>
+  </si>
+  <si>
+    <t>Settlement Statement from US Department of Housing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wire Instructions </t>
+  </si>
+  <si>
+    <t>Other Documents</t>
+  </si>
+  <si>
+    <t>Credit Committee Final Approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copy of Wire Release </t>
+  </si>
+  <si>
+    <t>Property Insurance</t>
+  </si>
+  <si>
+    <t>Final PDF with all Documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Code        Date        Received         User Initials               Scanned                 User Initials</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Document Description </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -                                     ○                                                              ○</t>
+  </si>
+  <si>
+    <t>3001                               ○                                                              ○</t>
+  </si>
+  <si>
+    <t>3010                               ○                                                              ○</t>
+  </si>
+  <si>
+    <t>3021 STIBT Form 3021 - Loan  Documentation Checklist (REV151101)</t>
+  </si>
+  <si>
+    <t>#3021</t>
+  </si>
+  <si>
+    <t>Loan Documentation Checklist</t>
+  </si>
+  <si>
+    <t>Loan Request Application Form</t>
+  </si>
+  <si>
+    <t>Collateral Appraisal</t>
+  </si>
+  <si>
+    <t>Copy of Loan Disbursement</t>
+  </si>
+  <si>
+    <t>Final PDF with all documents</t>
+  </si>
+  <si>
+    <t>Master Pledged Security Agreement</t>
+  </si>
+  <si>
+    <t>Loan Agreement</t>
+  </si>
+  <si>
+    <t>3001                                  ○                                                           ○</t>
+  </si>
+  <si>
+    <t>3010                                ○                                                            ○</t>
+  </si>
+  <si>
+    <t>3030 STIBT eForm 3030 - Exception Request (REV151101)</t>
+  </si>
+  <si>
+    <t>#3030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exception Request  </t>
+  </si>
+  <si>
+    <t>General Exception Description</t>
+  </si>
+  <si>
+    <t>(If Exception has conditions please ○ mark</t>
+  </si>
+  <si>
+    <t>Exception to be Granted</t>
+  </si>
+  <si>
+    <t>Requested  ○ Full ○ Partial  Signed By _______________________________________________ ______________
+Name_______________________________ Date_________________________</t>
+  </si>
+  <si>
+    <t>Approvals Approvals</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>○ Approved     Name_______________________________ Date_________________________</t>
+  </si>
+  <si>
+    <t>○ Rejected     Name_______________________________ Date_________________________</t>
+  </si>
+  <si>
+    <t>3031 STIBT Form 3031 - New Relationship Exeption Request (REV151101)</t>
+  </si>
+  <si>
+    <t>#3031</t>
+  </si>
+  <si>
+    <t>New Relationship New Relationship Exception Request Exception Request</t>
+  </si>
+  <si>
+    <t>Account Holder Name</t>
+  </si>
+  <si>
+    <t>Requested by</t>
+  </si>
+  <si>
+    <t>City, Country. Code</t>
+  </si>
+  <si>
+    <t>Agent Name ,Signature</t>
+  </si>
+  <si>
+    <t>5001 STIBT Form 5001 - Portfolio Activity Profile Maintenance (REV151101)</t>
+  </si>
+  <si>
+    <t>#5001</t>
+  </si>
+  <si>
+    <t>Portfolio Activity Profile Portfolio Activity Profile</t>
+  </si>
+  <si>
+    <t>Portfolio Names</t>
+  </si>
+  <si>
+    <t>Portfolio Type</t>
+  </si>
+  <si>
+    <t>Portfolio Currency</t>
+  </si>
+  <si>
+    <t>○ Individual ○ Corporate ○ PHC</t>
+  </si>
+  <si>
+    <t>I. Financial inancial Information (Does not apply to PHC)</t>
+  </si>
+  <si>
+    <t>Year of Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texto </t>
+  </si>
+  <si>
+    <t>2 0___ 2 0___ 2 0___</t>
+  </si>
+  <si>
+    <t>Financial Statements Included:
+○ Balance Sheet Included ○ Income Statement Included ○ Cash Flow Statement Included
+○ Other
+Audited Statements?
+○ Yes ○ No; If Audited, please provide the Auditors Name</t>
+  </si>
+  <si>
+    <t>II. Portfolio Expected Activity</t>
+  </si>
+  <si>
+    <t>Describe proposed account usage or changes</t>
+  </si>
+  <si>
+    <t>Estimated Expected Average Monthly Activity</t>
+  </si>
+  <si>
+    <t>Activity                                                                                                 $                             €                            Number                           Amount                          Number                 Amount</t>
+  </si>
+  <si>
+    <t>Inbound Activities :
+Incoming Wire Transfers
+Check Deposits
+Other Credits/Deposits</t>
+  </si>
+  <si>
+    <t>Outbound Activities :
+Outgoing Wire Transfers
+Bank/Official Checks
+Debit Card Transactions
+Other Debits</t>
+  </si>
+  <si>
+    <t>Internal Activities :
+Own Accounts/Portfolios
+Third Parties (Accts/Port.)</t>
+  </si>
+  <si>
+    <t>Portfolio Activity Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ○ Maintenance Maintenance</t>
+  </si>
+  <si>
+    <t>III. General Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Bank Use only </t>
+  </si>
+  <si>
+    <t>Code  |  Cost Center</t>
+  </si>
+  <si>
+    <t>Date Completed (MDY) ,  Reviewer Code,  Next Review Date (MDY)</t>
+  </si>
+  <si>
+    <t>5037 STIBT Form 5037 - Relationship Officer - New  Maintenance (REV151101)</t>
+  </si>
+  <si>
+    <t>#5037</t>
+  </si>
+  <si>
+    <t>Relationship Officer Relationship Officer</t>
+  </si>
+  <si>
+    <t>○ New
+○ Maintenance Maintenance
+○ Cancellation</t>
+  </si>
+  <si>
+    <t>STIBT Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reviewed By</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Information </t>
+  </si>
+  <si>
+    <t>Last     First    Middle</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2893,7 +3879,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2935,6 +3921,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3250,19 +4245,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L820"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L1113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C803" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F819" sqref="F819"/>
+    <sheetView tabSelected="1" topLeftCell="C1091" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D1113" sqref="D1113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="93.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="134.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="143.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="228.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -17813,148 +18808,5439 @@
       </c>
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A804" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B804" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C804" s="1" t="s">
+        <v>760</v>
+      </c>
       <c r="D804" s="3" t="s">
-        <v>763</v>
+        <v>396</v>
       </c>
     </row>
     <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A805" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B805" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C805" s="1" t="s">
+        <v>760</v>
+      </c>
       <c r="D805" s="3" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A806" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B806" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C806" s="1" t="s">
+        <v>760</v>
+      </c>
       <c r="D806" s="3" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A807" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B807" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C807" s="1" t="s">
+        <v>760</v>
+      </c>
       <c r="D807" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E807" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A808" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B808" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C808" s="1" t="s">
+        <v>760</v>
+      </c>
       <c r="D808" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="E808" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F808" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A809" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B809" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C809" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D809" s="3" t="s">
         <v>765</v>
-      </c>
-      <c r="E808" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F808" s="2" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D809" s="3" t="s">
-        <v>766</v>
       </c>
       <c r="E809" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F809" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A810" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B810" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C810" s="1" t="s">
+        <v>760</v>
+      </c>
       <c r="D810" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E810" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F810" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A811" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B811" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C811" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D811" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="E811" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F811" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A812" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B812" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C812" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D812" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A813" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B813" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C813" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D813" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="E813" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F813" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A814" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B814" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C814" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D814" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="F814" s="7" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D811" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="E811" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F811" s="2" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D812" s="3" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D813" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="E813" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F813" s="2" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="814" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="D814" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="F814" s="7" t="s">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A815" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B815" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C815" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D815" s="3" t="s">
         <v>777</v>
-      </c>
-    </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D815" s="3" t="s">
-        <v>778</v>
       </c>
       <c r="E815" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A816" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B816" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C816" s="1" t="s">
+        <v>760</v>
+      </c>
       <c r="D816" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="E816" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F816" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A817" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B817" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C817" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D817" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="E816" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F816" s="2" t="s">
+      <c r="F817" s="2" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="817" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D817" s="3" t="s">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A818" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B818" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C818" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D818" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="F817" s="2" t="s">
+      <c r="F818" s="2" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="818" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D818" s="3" t="s">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A819" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B819" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C819" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D819" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="F818" s="2" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="819" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D819" s="3" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="820" spans="4:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A820" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B820" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="C820" s="1" t="s">
+        <v>760</v>
+      </c>
       <c r="D820" s="3" t="s">
         <v>111</v>
       </c>
     </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A821" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B821" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C821" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D821" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="E821" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F821" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A822" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B822" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C822" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D822" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A823" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B823" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C823" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D823" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A824" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B824" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C824" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D824" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E824" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F824" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A825" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B825" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C825" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D825" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A826" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B826" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C826" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D826" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="E826" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A827" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B827" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C827" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D827" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="E827" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F827" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A828" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B828" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C828" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D828" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="E828" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A829" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B829" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C829" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D829" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="E829" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F829" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A830" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B830" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C830" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D830" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="E830" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F830" s="7" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A831" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B831" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="C831" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D831" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="E831" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A832" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B832" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="C832" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D832" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E832" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A833" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B833" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="C833" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D833" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="E833" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A834" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B834" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="C834" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D834" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E834" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A835" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B835" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="C835" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D835" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E835" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A836" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B836" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="C836" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D836" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="E836" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F836" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A837" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B837" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="C837" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D837" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="E837" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F837" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A838" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B838" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="C838" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E838" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A839" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B839" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C839" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D839" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="E839" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F839" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A840" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B840" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C840" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D840" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E840" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A841" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B841" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C841" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D841" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E841" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A842" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B842" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C842" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D842" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E842" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A843" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B843" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C843" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D843" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E843" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A844" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B844" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C844" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D844" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="E844" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A845" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B845" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C845" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D845" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="E845" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F845"/>
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A846" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B846" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C846" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D846" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="E846" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F846" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A847" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B847" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C847" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D847" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="E847" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F847" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A848" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B848" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C848" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D848" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="E848" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A849" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B849" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C849" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D849" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="E849" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A850" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B850" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C850" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D850" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="E850" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F850" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A851" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B851" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C851" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D851" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="E851" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F851" s="7" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A852" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B852" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C852" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D852" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="E852" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A853" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B853" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C853" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D853" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="E853" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F853" s="7" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A854" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B854" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C854" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D854" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E854" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F854" s="2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A855" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B855" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C855" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D855" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="E855" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F855" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A856" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B856" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C856" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D856" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E856" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A857" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B857" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C857" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D857" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E857" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A858" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B858" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C858" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D858" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E858" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A859" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B859" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C859" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D859" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E859" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A860" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B860" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C860" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D860" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="E860" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A861" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B861" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C861" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D861" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="E861" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F861" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A862" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B862" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C862" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D862" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="E862" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A863" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B863" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C863" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D863" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="E863" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F863" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A864" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B864" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C864" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D864" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="E864" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F864" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A865" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B865" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C865" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D865" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="E865" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F865" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A866" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B866" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C866" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D866" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="E866" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F866" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A867" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B867" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C867" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D867" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="E867" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A868" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B868" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C868" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D868" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="E868" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F868" s="7" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A869" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B869" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C869" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D869" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="E869" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A870" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B870" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C870" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D870" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="E870" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F870" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A871" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B871" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C871" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D871" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="E871" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A872" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B872" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C872" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D872" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="E872" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F872" s="7" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A873" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B873" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C873" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D873" s="3" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A874" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B874" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C874" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D874" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="E874" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F874" s="7" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A875" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B875" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C875" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D875" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E875" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F875" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A876" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B876" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C876" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D876" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="E876" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A877" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B877" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C877" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D877" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="F877" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A878" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B878" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C878" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E878" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F878" s="7" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A879" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B879" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C879" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D879" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="E879" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F879" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A880" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B880" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C880" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D880" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F880" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A881" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B881" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C881" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D881" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="E881" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F881" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A882" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B882" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C882" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="F882" s="7" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A883" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B883" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C883" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D883" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="E883" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F883" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A884" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B884" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C884" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="F884" s="7" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A885" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B885" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="C885" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D885" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="E885" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A886" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B886" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="C886" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D886" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="E886" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A887" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B887" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="C887" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D887" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E887" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A888" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B888" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="C888" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D888" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E888" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F888" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A889" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B889" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="C889" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D889" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="E889" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A890" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B890" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="C890" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D890" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="E890" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F890" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A891" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B891" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="C891" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D891" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="E891" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A892" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B892" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="C892" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D892" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="E892" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A893" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B893" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="C893" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D893" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E893" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A894" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B894" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="C894" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D894" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A895" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B895" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="C895" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D895" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="E895" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F895" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A896" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B896" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C896" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D896" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="E896" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A897" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B897" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C897" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D897" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="E897" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A898" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B898" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C898" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D898" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E898" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A899" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B899" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C899" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D899" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E899" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A900" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B900" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C900" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D900" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E900" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A901" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B901" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C901" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D901" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E901" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A902" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B902" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C902" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D902" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="E902" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A903" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B903" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C903" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D903" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="E903" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F903" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A904" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B904" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C904" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D904" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="E904" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A905" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B905" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C905" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D905" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="E905" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F905" s="2" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A906" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B906" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C906" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="F906" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A907" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B907" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C907" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="F907" s="2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A908" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B908" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C908" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="F908" s="2" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A909" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B909" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C909" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="F909" s="2" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A910" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B910" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C910" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="F910" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A911" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B911" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C911" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="F911" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A912" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B912" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C912" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="F912" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A913" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B913" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C913" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="F913" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A914" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B914" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C914" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="F914" s="2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A915" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B915" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C915" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="F915" s="2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A916" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B916" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C916" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D916" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E916" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F916" s="7" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A917" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B917" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C917" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D917" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="E917" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A918" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B918" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C918" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D918" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E918" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A919" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B919" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C919" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D919" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E919" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A920" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B920" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C920" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D920" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E920" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A921" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B921" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C921" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D921" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E921" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A922" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B922" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C922" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D922" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="E922" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A923" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B923" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C923" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D923" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="E923" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F923" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A924" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B924" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C924" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D924" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="E924" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A925" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B925" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C925" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D925" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="E925" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A926" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B926" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C926" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D926" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="E926" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A927" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B927" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C927" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D927" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="E927" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A928" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B928" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C928" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D928" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="E928" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A929" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B929" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C929" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D929" s="3" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A930" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B930" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C930" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D930" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="E930" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A931" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B931" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C931" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D931" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="E931" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F931" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A932" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B932" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C932" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D932" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="E932" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F932" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A933" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B933" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C933" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D933" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E933" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A934" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B934" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C934" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="D934" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="E934" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F934" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A935" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B935" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C935" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D935" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="E935" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A936" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B936" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C936" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D936" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="E936" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A937" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B937" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C937" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D937" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="E937" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A938" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B938" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C938" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D938" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="E938" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A939" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B939" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C939" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D939" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E939" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A940" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B940" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C940" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D940" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="E940" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A941" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B941" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C941" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D941" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="E941" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A942" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B942" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C942" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D942" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="E942" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F942" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A943" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B943" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C943" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D943" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="E943" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A944" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B944" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C944" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D944" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="E944" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F944" s="7" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A945" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B945" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C945" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D945" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="E945" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A946" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B946" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C946" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D946" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="E946" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F946" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A947" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B947" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C947" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D947" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="E947" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A948" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B948" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C948" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D948" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="E948" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A949" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B949" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C949" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D949" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="E949" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A950" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B950" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C950" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D950" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="E950" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F950" s="2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A951" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B951" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C951" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D951" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="E951" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A952" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B952" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C952" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D952" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="E952" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A953" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B953" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C953" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D953" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="E953" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F953" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A954" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B954" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C954" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D954" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="E954" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F954" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A955" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B955" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C955" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D955" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="E955" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A956" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B956" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C956" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D956" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="E956" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F956" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A957" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B957" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C957" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D957" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="E957" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A958" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B958" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C958" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D958" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="E958" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F958" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A959" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B959" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C959" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D959" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E959" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F959" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A960" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B960" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C960" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D960" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="E960" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F960" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A961" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B961" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C961" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D961" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="E961" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F961" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="962" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A962" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B962" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C962" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D962" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="E962" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A963" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B963" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C963" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D963" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="E963" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F963" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A964" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B964" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C964" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D964" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="E964" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="965" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A965" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B965" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C965" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D965" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="E965" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A966" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B966" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C966" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D966" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="E966" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A967" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B967" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C967" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D967" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="E967" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="968" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A968" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B968" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C968" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D968" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="E968" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F968" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A969" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B969" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C969" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D969" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="E969" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F969" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A970" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B970" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C970" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D970" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="E970" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A971" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B971" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C971" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D971" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A972" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B972" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C972" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D972" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E972" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F972" s="7" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="973" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A973" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B973" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C973" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D973" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E973" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F973" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="974" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A974" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B974" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C974" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D974" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="E974" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F974" s="7" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A975" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B975" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C975" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D975" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="E975" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="976" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A976" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B976" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C976" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D976" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="E976" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="977" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A977" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B977" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C977" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D977" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="E977" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A978" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B978" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C978" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D978" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="E978" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="979" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A979" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B979" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C979" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D979" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="E979" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="980" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A980" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B980" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C980" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D980" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="E980" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A981" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B981" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C981" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D981" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="E981" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A982" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B982" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C982" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D982" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E982" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A983" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B983" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C983" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D983" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E983" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="984" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A984" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B984" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C984" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D984" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="E984" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="985" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A985" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B985" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C985" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D985" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E985" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F985" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="986" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A986" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B986" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C986" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D986" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="E986" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F986" s="7" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="987" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A987" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B987" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C987" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D987" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="E987" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F987" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="988" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A988" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B988" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C988" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D988" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="E988" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F988" s="2" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="989" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A989" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B989" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C989" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D989" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="E989" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F989" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="990" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A990" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B990" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C990" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D990" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E990" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="991" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A991" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B991" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C991" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D991" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="E991" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A992" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B992" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C992" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D992" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="E992" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A993" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B993" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C993" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D993" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="E993" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F993" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="994" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A994" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B994" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C994" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D994" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="E994" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F994" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="995" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A995" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B995" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C995" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D995" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="E995" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="996" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A996" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B996" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C996" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D996" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="E996" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="997" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A997" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B997" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C997" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D997" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="E997" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F997" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A998" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B998" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C998" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D998" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E998" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A999" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B999" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C999" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D999" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="E999" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F999" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1000" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1000" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C1000" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D1000" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="E1000" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1001" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1001" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C1001" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D1001" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="E1001" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1002" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1002" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C1002" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D1002" s="3" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1003" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1003" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C1003" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D1003" s="3" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1004" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1004" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C1004" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D1004" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1005" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1005" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C1005" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D1005" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="E1005" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1005" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1006" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1006" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1006" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1006" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="E1006" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1007" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1007" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1007" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1007" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E1007" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1008" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1008" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1008" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1008" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1008" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1009" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1009" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1009" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1009" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="E1009" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1010" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1010" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1010" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1010" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="E1010" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1011" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1011" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1011" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1011" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="E1011" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1012" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1012" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1012" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1012" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E1012" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1013" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1013" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1013" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1013" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="E1013" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1013" s="2" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1014" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1014" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1014" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1014" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E1014" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="F1014" s="2" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1015" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1015" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1015" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1015" s="15" t="s">
+        <v>998</v>
+      </c>
+      <c r="E1015" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1015" s="17" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1016" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1016" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1016" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1016" s="15" t="s">
+        <v>999</v>
+      </c>
+      <c r="E1016" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1016" s="17" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1017" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1017" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1017" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1017" s="15" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E1017" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1017" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1018" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1018" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1018" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1018" s="15" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E1018" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1018" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1019" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1019" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1019" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1019" s="15" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E1019" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1019" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1020" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1020" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1020" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1020" s="15" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E1020" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1020" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1021" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1021" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1021" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1021" s="15" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E1021" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1021" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1022" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1022" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1022" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1022" s="15" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E1022" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1022" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1023" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1023" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1023" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1023" s="15" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E1023" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1023" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1024" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1024" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1024" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1024" s="15" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E1024" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1024" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1025" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1025" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1025" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1025" s="15" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E1025" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1025" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1026" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1026" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1026" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1026" s="15" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E1026" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1026" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1027" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1027" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1027" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1027" s="15" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E1027" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1027" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1028" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1028" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1028" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1028" s="15" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E1028" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1028" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1029" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1029" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1029" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1029" s="15" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E1029" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1029" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1030" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1030" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1030" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1030" s="15" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E1030" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1030" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1031" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1031" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1031" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1031" s="15" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E1031" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1031" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1032" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1032" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1032" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1032" s="15" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E1032" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1032" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1033" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1033" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1033" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D1033" s="15" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E1033" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1033" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1034" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1034" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1034" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1034" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E1034" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1034" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1035" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1035" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1035" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1035" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E1035" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1036" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1036" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1036" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1036" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1036" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1037" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1037" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1037" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1037" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="E1037" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1038" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1038" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1038" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1038" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="E1038" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1039" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1039" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1039" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1039" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="E1039" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1040" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1040" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1040" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1040" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E1040" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1041" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1041" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1041" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1041" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="E1041" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1041" s="2" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1042" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1042" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1042" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1042" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E1042" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="F1042" s="2" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1043" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1043" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1043" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1043" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F1043" s="2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1044" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1044" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1044" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1044" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="F1044" s="2" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1045" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1045" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1045" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1045" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F1045" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1046" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1046" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1046" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1046" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F1046" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1047" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1047" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1047" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1047" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F1047" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1048" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1048" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1048" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1048" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F1048" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1049" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1049" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1049" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1049" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F1049" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1050" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1050" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1050" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1050" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F1050" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1051" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1051" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1051" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1051" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F1051" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1052" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1052" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1052" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1052" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F1052" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1053" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1053" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1053" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1053" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F1053" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1054" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1054" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C1054" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1054" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E1054" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1054" s="17" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1055" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1055" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C1055" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1055" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1055" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1056" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1056" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C1056" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1056" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E1056" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1057" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1057" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C1057" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1057" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E1057" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1058" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1058" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C1058" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1058" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1058" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1059" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1059" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C1059" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1059" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E1059" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1059" s="2" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1060" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1060" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C1060" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1060" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E1060" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1060" s="7" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1061" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1061" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C1061" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1061" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E1061" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1062" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1062" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C1062" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1062" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E1062" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1062" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1063" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1063" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C1063" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1063" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1063" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1063" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1064" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1064" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C1064" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1064" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E1064" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1065" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1065" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C1065" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1065" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E1065" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1066" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1066" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C1066" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1066" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1066" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1067" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1067" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C1067" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1067" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E1067" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1068" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1068" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C1068" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1068" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1068" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1069" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1069" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C1069" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1069" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E1069" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1070" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1070" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C1070" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1070" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="E1070" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1070" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1071" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1071" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C1071" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1071" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="E1071" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1071" s="2" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1072" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1072" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1072" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1072" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E1072" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1073" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1073" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1073" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1073" s="3" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1074" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1074" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1074" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1074" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1075" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1075" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1075" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1075" s="3" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1076" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1076" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1076" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1076" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E1076" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1076" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1077" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1077" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1077" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1077" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1077" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1078" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1078" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1078" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1078" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E1078" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1079" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1079" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1079" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1079" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E1079" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1080" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1080" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1080" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1080" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E1080" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F1080" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1081" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1081" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1081" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1081" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1081" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1082" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1082" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1082" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1082" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E1082" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1083" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1083" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1083" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1083" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1083" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1084" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1084" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1084" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1084" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1084" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1085" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1085" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1085" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1085" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1085" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1086" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1086" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1086" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1086" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1086" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1087" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1087" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1087" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1087" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1087" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1088" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1088" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1088" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E1088" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1088" s="7" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1089" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1089" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1089" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1089" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E1089" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1090" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1090" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1090" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1090" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E1090" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1091" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1091" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1091" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1091" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E1091" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1091" s="2" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1092" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1092" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1092" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F1092" s="7" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1093" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1093" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1093" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F1093" s="7" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1094" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1094" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1094" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F1094" s="7" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1095" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1095" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1095" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1095" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E1095" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1095" s="2" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1096" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1096" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1096" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1096" s="3" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1097" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1097" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1097" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1097" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1098" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1098" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1098" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1098" s="3" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1099" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1099" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1099" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1099" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E1099" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1099" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1100" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1100" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1100" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1100" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1100" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1101" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1101" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1101" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E1101" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1102" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1102" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1102" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E1102" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1103" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1103" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1103" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E1103" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1104" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1104" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1104" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1104" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1105" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1105" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D1105" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1105" s="2" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1106" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C1106" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D1106" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E1106" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1106" s="7" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1107" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1107" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1108" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E1108" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1109" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1109" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1110" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="E1110" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1111" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E1111" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1112" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E1112" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1113" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1113" s="2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F638"/>
+  <autoFilter ref="A1:F638" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$L$1:$L$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$L$1</formula1>
     </dataValidation>
   </dataValidations>
@@ -17964,40 +24250,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -18010,14 +24296,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -18030,12 +24316,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
